--- a/Scalp IC Markets ECN.xlsx
+++ b/Scalp IC Markets ECN.xlsx
@@ -367,13 +367,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyNumberFormat="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true" applyNumberFormat="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
